--- a/BOOT.xlsx
+++ b/BOOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88B253-3F26-4C87-B770-31CD0607E257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8F570-D10F-412A-A6AE-A4BA42969E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{0314A48E-4A7F-452F-A8F7-3D2CABA03279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{0314A48E-4A7F-452F-A8F7-3D2CABA03279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +154,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -170,12 +168,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,17 +210,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,32 +560,33 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>137.26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -583,11 +596,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -595,11 +608,11 @@
         <v>4194.5283399999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -609,8 +622,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -620,8 +633,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -629,13 +642,13 @@
         <v>4041.6143400000001</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -655,21 +668,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -695,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -784,26 +798,26 @@
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>520.399</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>374.45600000000002</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>425.79899999999998</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>608.16999999999996</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -884,8 +898,8 @@
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3">
@@ -984,8 +998,8 @@
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3">
@@ -1100,8 +1114,8 @@
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
@@ -1200,8 +1214,8 @@
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3">
@@ -1316,8 +1330,8 @@
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3">
@@ -1416,8 +1430,8 @@
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3">
@@ -1516,8 +1530,8 @@
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3">
@@ -1632,8 +1646,8 @@
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3">
@@ -1732,8 +1746,8 @@
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3">
@@ -1848,7 +1862,7 @@
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1937,39 +1951,39 @@
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <f t="shared" ref="C15:G15" si="8">+C13/C16</f>
         <v>1.8361997821278853</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="8">
         <f t="shared" si="8"/>
         <v>0.91847230978531491</v>
       </c>
-      <c r="E15" s="2" t="e">
+      <c r="E15" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="2" t="e">
+      <c r="F15" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="2" t="e">
+      <c r="G15" s="8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <f>+H13/H16</f>
         <v>0.96453621763356268</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="8">
         <f t="shared" ref="I15:J15" si="9">+I13/I16</f>
         <v>2.456428548054582</v>
       </c>
-      <c r="J15" s="2" t="e">
+      <c r="J15" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -2053,8 +2067,8 @@
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3">
@@ -2153,7 +2167,7 @@
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
     </row>
-    <row r="17" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2242,7 +2256,7 @@
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
     </row>
-    <row r="18" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2331,7 +2345,7 @@
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
     </row>
-    <row r="19" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2420,7 +2434,7 @@
       <c r="CJ19" s="3"/>
       <c r="CK19" s="3"/>
     </row>
-    <row r="20" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2509,7 +2523,7 @@
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
     </row>
-    <row r="21" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2598,7 +2612,7 @@
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
     </row>
-    <row r="22" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2687,7 +2701,7 @@
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
     </row>
-    <row r="23" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2776,7 +2790,7 @@
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
     </row>
-    <row r="24" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2865,7 +2879,7 @@
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
     </row>
-    <row r="25" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2954,7 +2968,7 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
     </row>
-    <row r="26" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3043,7 +3057,7 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
     </row>
-    <row r="27" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3132,7 +3146,7 @@
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
     </row>
-    <row r="28" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3221,7 +3235,7 @@
       <c r="CJ28" s="3"/>
       <c r="CK28" s="3"/>
     </row>
-    <row r="29" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3310,7 +3324,7 @@
       <c r="CJ29" s="3"/>
       <c r="CK29" s="3"/>
     </row>
-    <row r="30" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3399,7 +3413,7 @@
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
     </row>
-    <row r="31" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3488,7 +3502,7 @@
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
     </row>
-    <row r="32" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3577,7 +3591,7 @@
       <c r="CJ32" s="3"/>
       <c r="CK32" s="3"/>
     </row>
-    <row r="33" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3666,7 +3680,7 @@
       <c r="CJ33" s="3"/>
       <c r="CK33" s="3"/>
     </row>
-    <row r="34" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3755,7 +3769,7 @@
       <c r="CJ34" s="3"/>
       <c r="CK34" s="3"/>
     </row>
-    <row r="35" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3844,7 +3858,7 @@
       <c r="CJ35" s="3"/>
       <c r="CK35" s="3"/>
     </row>
-    <row r="36" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3933,7 +3947,7 @@
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
     </row>
-    <row r="37" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4022,7 +4036,7 @@
       <c r="CJ37" s="3"/>
       <c r="CK37" s="3"/>
     </row>
-    <row r="38" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4111,7 +4125,7 @@
       <c r="CJ38" s="3"/>
       <c r="CK38" s="3"/>
     </row>
-    <row r="39" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4200,7 +4214,7 @@
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
     </row>
-    <row r="40" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4289,7 +4303,7 @@
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
     </row>
-    <row r="41" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4378,7 +4392,7 @@
       <c r="CJ41" s="3"/>
       <c r="CK41" s="3"/>
     </row>
-    <row r="42" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4467,7 +4481,7 @@
       <c r="CJ42" s="3"/>
       <c r="CK42" s="3"/>
     </row>
-    <row r="43" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4556,7 +4570,7 @@
       <c r="CJ43" s="3"/>
       <c r="CK43" s="3"/>
     </row>
-    <row r="44" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4645,7 +4659,7 @@
       <c r="CJ44" s="3"/>
       <c r="CK44" s="3"/>
     </row>
-    <row r="45" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4734,7 +4748,7 @@
       <c r="CJ45" s="3"/>
       <c r="CK45" s="3"/>
     </row>
-    <row r="46" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4823,7 +4837,7 @@
       <c r="CJ46" s="3"/>
       <c r="CK46" s="3"/>
     </row>
-    <row r="47" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4912,7 +4926,7 @@
       <c r="CJ47" s="3"/>
       <c r="CK47" s="3"/>
     </row>
-    <row r="48" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5001,7 +5015,7 @@
       <c r="CJ48" s="3"/>
       <c r="CK48" s="3"/>
     </row>
-    <row r="49" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5090,7 +5104,7 @@
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
     </row>
-    <row r="50" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5179,7 +5193,7 @@
       <c r="CJ50" s="3"/>
       <c r="CK50" s="3"/>
     </row>
-    <row r="51" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5268,7 +5282,7 @@
       <c r="CJ51" s="3"/>
       <c r="CK51" s="3"/>
     </row>
-    <row r="52" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5357,7 +5371,7 @@
       <c r="CJ52" s="3"/>
       <c r="CK52" s="3"/>
     </row>
-    <row r="53" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5446,7 +5460,7 @@
       <c r="CJ53" s="3"/>
       <c r="CK53" s="3"/>
     </row>
-    <row r="54" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5535,7 +5549,7 @@
       <c r="CJ54" s="3"/>
       <c r="CK54" s="3"/>
     </row>
-    <row r="55" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5624,7 +5638,7 @@
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
     </row>
-    <row r="56" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5713,7 +5727,7 @@
       <c r="CJ56" s="3"/>
       <c r="CK56" s="3"/>
     </row>
-    <row r="57" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5802,7 +5816,7 @@
       <c r="CJ57" s="3"/>
       <c r="CK57" s="3"/>
     </row>
-    <row r="58" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5891,7 +5905,7 @@
       <c r="CJ58" s="3"/>
       <c r="CK58" s="3"/>
     </row>
-    <row r="59" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5980,7 +5994,7 @@
       <c r="CJ59" s="3"/>
       <c r="CK59" s="3"/>
     </row>
-    <row r="60" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -6069,7 +6083,7 @@
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
     </row>
-    <row r="61" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -6158,7 +6172,7 @@
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
     </row>
-    <row r="62" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6247,7 +6261,7 @@
       <c r="CJ62" s="3"/>
       <c r="CK62" s="3"/>
     </row>
-    <row r="63" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -6336,7 +6350,7 @@
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
     </row>
-    <row r="64" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6425,7 +6439,7 @@
       <c r="CJ64" s="3"/>
       <c r="CK64" s="3"/>
     </row>
-    <row r="65" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6514,7 +6528,7 @@
       <c r="CJ65" s="3"/>
       <c r="CK65" s="3"/>
     </row>
-    <row r="66" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6603,7 +6617,7 @@
       <c r="CJ66" s="3"/>
       <c r="CK66" s="3"/>
     </row>
-    <row r="67" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6692,7 +6706,7 @@
       <c r="CJ67" s="3"/>
       <c r="CK67" s="3"/>
     </row>
-    <row r="68" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6781,7 +6795,7 @@
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
     </row>
-    <row r="69" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6870,7 +6884,7 @@
       <c r="CJ69" s="3"/>
       <c r="CK69" s="3"/>
     </row>
-    <row r="70" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6959,7 +6973,7 @@
       <c r="CJ70" s="3"/>
       <c r="CK70" s="3"/>
     </row>
-    <row r="71" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7048,7 +7062,7 @@
       <c r="CJ71" s="3"/>
       <c r="CK71" s="3"/>
     </row>
-    <row r="72" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7137,7 +7151,7 @@
       <c r="CJ72" s="3"/>
       <c r="CK72" s="3"/>
     </row>
-    <row r="73" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7226,7 +7240,7 @@
       <c r="CJ73" s="3"/>
       <c r="CK73" s="3"/>
     </row>
-    <row r="74" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -7315,7 +7329,7 @@
       <c r="CJ74" s="3"/>
       <c r="CK74" s="3"/>
     </row>
-    <row r="75" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -7404,7 +7418,7 @@
       <c r="CJ75" s="3"/>
       <c r="CK75" s="3"/>
     </row>
-    <row r="76" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -7493,7 +7507,7 @@
       <c r="CJ76" s="3"/>
       <c r="CK76" s="3"/>
     </row>
-    <row r="77" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7582,7 +7596,7 @@
       <c r="CJ77" s="3"/>
       <c r="CK77" s="3"/>
     </row>
-    <row r="78" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -7671,7 +7685,7 @@
       <c r="CJ78" s="3"/>
       <c r="CK78" s="3"/>
     </row>
-    <row r="79" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7760,7 +7774,7 @@
       <c r="CJ79" s="3"/>
       <c r="CK79" s="3"/>
     </row>
-    <row r="80" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -7849,7 +7863,7 @@
       <c r="CJ80" s="3"/>
       <c r="CK80" s="3"/>
     </row>
-    <row r="81" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7938,7 +7952,7 @@
       <c r="CJ81" s="3"/>
       <c r="CK81" s="3"/>
     </row>
-    <row r="82" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -8027,7 +8041,7 @@
       <c r="CJ82" s="3"/>
       <c r="CK82" s="3"/>
     </row>
-    <row r="83" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -8116,7 +8130,7 @@
       <c r="CJ83" s="3"/>
       <c r="CK83" s="3"/>
     </row>
-    <row r="84" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -8205,7 +8219,7 @@
       <c r="CJ84" s="3"/>
       <c r="CK84" s="3"/>
     </row>
-    <row r="85" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -8294,7 +8308,7 @@
       <c r="CJ85" s="3"/>
       <c r="CK85" s="3"/>
     </row>
-    <row r="86" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -8383,7 +8397,7 @@
       <c r="CJ86" s="3"/>
       <c r="CK86" s="3"/>
     </row>
-    <row r="87" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -8472,7 +8486,7 @@
       <c r="CJ87" s="3"/>
       <c r="CK87" s="3"/>
     </row>
-    <row r="88" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -8561,7 +8575,7 @@
       <c r="CJ88" s="3"/>
       <c r="CK88" s="3"/>
     </row>
-    <row r="89" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -8650,7 +8664,7 @@
       <c r="CJ89" s="3"/>
       <c r="CK89" s="3"/>
     </row>
-    <row r="90" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -8739,7 +8753,7 @@
       <c r="CJ90" s="3"/>
       <c r="CK90" s="3"/>
     </row>
-    <row r="91" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -8828,7 +8842,7 @@
       <c r="CJ91" s="3"/>
       <c r="CK91" s="3"/>
     </row>
-    <row r="92" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -8917,7 +8931,7 @@
       <c r="CJ92" s="3"/>
       <c r="CK92" s="3"/>
     </row>
-    <row r="93" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -9006,7 +9020,7 @@
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
     </row>
-    <row r="94" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -9095,7 +9109,7 @@
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
     </row>
-    <row r="95" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -9184,7 +9198,7 @@
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
     </row>
-    <row r="96" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -9273,7 +9287,7 @@
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
     </row>
-    <row r="97" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -9362,7 +9376,7 @@
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
     </row>
-    <row r="98" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -9451,7 +9465,7 @@
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
     </row>
-    <row r="99" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -9540,7 +9554,7 @@
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
     </row>
-    <row r="100" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -9629,7 +9643,7 @@
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
     </row>
-    <row r="101" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -9718,7 +9732,7 @@
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
     </row>
-    <row r="102" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -9807,7 +9821,7 @@
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
     </row>
-    <row r="103" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -9896,7 +9910,7 @@
       <c r="CJ103" s="3"/>
       <c r="CK103" s="3"/>
     </row>
-    <row r="104" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -9985,7 +9999,7 @@
       <c r="CJ104" s="3"/>
       <c r="CK104" s="3"/>
     </row>
-    <row r="105" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -10074,7 +10088,7 @@
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
     </row>
-    <row r="106" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -10163,7 +10177,7 @@
       <c r="CJ106" s="3"/>
       <c r="CK106" s="3"/>
     </row>
-    <row r="107" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -10252,7 +10266,7 @@
       <c r="CJ107" s="3"/>
       <c r="CK107" s="3"/>
     </row>
-    <row r="108" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -10341,7 +10355,7 @@
       <c r="CJ108" s="3"/>
       <c r="CK108" s="3"/>
     </row>
-    <row r="109" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -10430,7 +10444,7 @@
       <c r="CJ109" s="3"/>
       <c r="CK109" s="3"/>
     </row>
-    <row r="110" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -10519,7 +10533,7 @@
       <c r="CJ110" s="3"/>
       <c r="CK110" s="3"/>
     </row>
-    <row r="111" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -10608,7 +10622,7 @@
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
     </row>
-    <row r="112" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -10697,7 +10711,7 @@
       <c r="CJ112" s="3"/>
       <c r="CK112" s="3"/>
     </row>
-    <row r="113" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -10786,7 +10800,7 @@
       <c r="CJ113" s="3"/>
       <c r="CK113" s="3"/>
     </row>
-    <row r="114" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -10875,7 +10889,7 @@
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
     </row>
-    <row r="115" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -10964,7 +10978,7 @@
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
     </row>
-    <row r="116" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -11053,7 +11067,7 @@
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
     </row>
-    <row r="117" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -11142,7 +11156,7 @@
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
     </row>
-    <row r="118" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -11231,7 +11245,7 @@
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
     </row>
-    <row r="119" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -11320,7 +11334,7 @@
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
     </row>
-    <row r="120" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -11409,7 +11423,7 @@
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
     </row>
-    <row r="121" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -11498,7 +11512,7 @@
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
     </row>
-    <row r="122" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -11587,7 +11601,7 @@
       <c r="CJ122" s="3"/>
       <c r="CK122" s="3"/>
     </row>
-    <row r="123" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -11676,7 +11690,7 @@
       <c r="CJ123" s="3"/>
       <c r="CK123" s="3"/>
     </row>
-    <row r="124" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -11765,7 +11779,7 @@
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
     </row>
-    <row r="125" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -11854,7 +11868,7 @@
       <c r="CJ125" s="3"/>
       <c r="CK125" s="3"/>
     </row>
-    <row r="126" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -11943,7 +11957,7 @@
       <c r="CJ126" s="3"/>
       <c r="CK126" s="3"/>
     </row>
-    <row r="127" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -12032,7 +12046,7 @@
       <c r="CJ127" s="3"/>
       <c r="CK127" s="3"/>
     </row>
-    <row r="128" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -12121,7 +12135,7 @@
       <c r="CJ128" s="3"/>
       <c r="CK128" s="3"/>
     </row>
-    <row r="129" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -12210,7 +12224,7 @@
       <c r="CJ129" s="3"/>
       <c r="CK129" s="3"/>
     </row>
-    <row r="130" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -12299,7 +12313,7 @@
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
     </row>
-    <row r="131" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -12388,7 +12402,7 @@
       <c r="CJ131" s="3"/>
       <c r="CK131" s="3"/>
     </row>
-    <row r="132" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -12477,7 +12491,7 @@
       <c r="CJ132" s="3"/>
       <c r="CK132" s="3"/>
     </row>
-    <row r="133" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -12566,7 +12580,7 @@
       <c r="CJ133" s="3"/>
       <c r="CK133" s="3"/>
     </row>
-    <row r="134" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -12655,7 +12669,7 @@
       <c r="CJ134" s="3"/>
       <c r="CK134" s="3"/>
     </row>
-    <row r="135" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -12744,7 +12758,7 @@
       <c r="CJ135" s="3"/>
       <c r="CK135" s="3"/>
     </row>
-    <row r="136" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -12833,7 +12847,7 @@
       <c r="CJ136" s="3"/>
       <c r="CK136" s="3"/>
     </row>
-    <row r="137" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -12922,7 +12936,7 @@
       <c r="CJ137" s="3"/>
       <c r="CK137" s="3"/>
     </row>
-    <row r="138" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -13011,7 +13025,7 @@
       <c r="CJ138" s="3"/>
       <c r="CK138" s="3"/>
     </row>
-    <row r="139" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -13100,7 +13114,7 @@
       <c r="CJ139" s="3"/>
       <c r="CK139" s="3"/>
     </row>
-    <row r="140" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -13189,7 +13203,7 @@
       <c r="CJ140" s="3"/>
       <c r="CK140" s="3"/>
     </row>
-    <row r="141" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -13278,7 +13292,7 @@
       <c r="CJ141" s="3"/>
       <c r="CK141" s="3"/>
     </row>
-    <row r="142" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -13367,7 +13381,7 @@
       <c r="CJ142" s="3"/>
       <c r="CK142" s="3"/>
     </row>
-    <row r="143" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -13456,7 +13470,7 @@
       <c r="CJ143" s="3"/>
       <c r="CK143" s="3"/>
     </row>
-    <row r="144" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -13545,7 +13559,7 @@
       <c r="CJ144" s="3"/>
       <c r="CK144" s="3"/>
     </row>
-    <row r="145" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -13634,7 +13648,7 @@
       <c r="CJ145" s="3"/>
       <c r="CK145" s="3"/>
     </row>
-    <row r="146" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -13723,7 +13737,7 @@
       <c r="CJ146" s="3"/>
       <c r="CK146" s="3"/>
     </row>
-    <row r="147" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -13812,7 +13826,7 @@
       <c r="CJ147" s="3"/>
       <c r="CK147" s="3"/>
     </row>
-    <row r="148" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -13901,7 +13915,7 @@
       <c r="CJ148" s="3"/>
       <c r="CK148" s="3"/>
     </row>
-    <row r="149" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -13990,7 +14004,7 @@
       <c r="CJ149" s="3"/>
       <c r="CK149" s="3"/>
     </row>
-    <row r="150" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -14079,7 +14093,7 @@
       <c r="CJ150" s="3"/>
       <c r="CK150" s="3"/>
     </row>
-    <row r="151" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -14168,7 +14182,7 @@
       <c r="CJ151" s="3"/>
       <c r="CK151" s="3"/>
     </row>
-    <row r="152" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -14257,7 +14271,7 @@
       <c r="CJ152" s="3"/>
       <c r="CK152" s="3"/>
     </row>
-    <row r="153" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -14346,7 +14360,7 @@
       <c r="CJ153" s="3"/>
       <c r="CK153" s="3"/>
     </row>
-    <row r="154" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -14435,7 +14449,7 @@
       <c r="CJ154" s="3"/>
       <c r="CK154" s="3"/>
     </row>
-    <row r="155" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -14524,7 +14538,7 @@
       <c r="CJ155" s="3"/>
       <c r="CK155" s="3"/>
     </row>
-    <row r="156" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -14613,7 +14627,7 @@
       <c r="CJ156" s="3"/>
       <c r="CK156" s="3"/>
     </row>
-    <row r="157" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -14702,7 +14716,7 @@
       <c r="CJ157" s="3"/>
       <c r="CK157" s="3"/>
     </row>
-    <row r="158" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -14791,7 +14805,7 @@
       <c r="CJ158" s="3"/>
       <c r="CK158" s="3"/>
     </row>
-    <row r="159" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -14880,7 +14894,7 @@
       <c r="CJ159" s="3"/>
       <c r="CK159" s="3"/>
     </row>
-    <row r="160" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -14969,7 +14983,7 @@
       <c r="CJ160" s="3"/>
       <c r="CK160" s="3"/>
     </row>
-    <row r="161" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -15058,7 +15072,7 @@
       <c r="CJ161" s="3"/>
       <c r="CK161" s="3"/>
     </row>
-    <row r="162" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -15147,7 +15161,7 @@
       <c r="CJ162" s="3"/>
       <c r="CK162" s="3"/>
     </row>
-    <row r="163" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -15236,7 +15250,7 @@
       <c r="CJ163" s="3"/>
       <c r="CK163" s="3"/>
     </row>
-    <row r="164" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -15325,7 +15339,7 @@
       <c r="CJ164" s="3"/>
       <c r="CK164" s="3"/>
     </row>
-    <row r="165" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -15414,7 +15428,7 @@
       <c r="CJ165" s="3"/>
       <c r="CK165" s="3"/>
     </row>
-    <row r="166" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -15503,7 +15517,7 @@
       <c r="CJ166" s="3"/>
       <c r="CK166" s="3"/>
     </row>
-    <row r="167" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -15592,7 +15606,7 @@
       <c r="CJ167" s="3"/>
       <c r="CK167" s="3"/>
     </row>
-    <row r="168" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -15681,7 +15695,7 @@
       <c r="CJ168" s="3"/>
       <c r="CK168" s="3"/>
     </row>
-    <row r="169" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -15770,7 +15784,7 @@
       <c r="CJ169" s="3"/>
       <c r="CK169" s="3"/>
     </row>
-    <row r="170" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -15859,7 +15873,7 @@
       <c r="CJ170" s="3"/>
       <c r="CK170" s="3"/>
     </row>
-    <row r="171" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -15948,7 +15962,7 @@
       <c r="CJ171" s="3"/>
       <c r="CK171" s="3"/>
     </row>
-    <row r="172" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -16037,7 +16051,7 @@
       <c r="CJ172" s="3"/>
       <c r="CK172" s="3"/>
     </row>
-    <row r="173" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -16126,7 +16140,7 @@
       <c r="CJ173" s="3"/>
       <c r="CK173" s="3"/>
     </row>
-    <row r="174" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -16215,7 +16229,7 @@
       <c r="CJ174" s="3"/>
       <c r="CK174" s="3"/>
     </row>
-    <row r="175" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -16304,7 +16318,7 @@
       <c r="CJ175" s="3"/>
       <c r="CK175" s="3"/>
     </row>
-    <row r="176" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -16393,7 +16407,7 @@
       <c r="CJ176" s="3"/>
       <c r="CK176" s="3"/>
     </row>
-    <row r="177" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -16482,7 +16496,7 @@
       <c r="CJ177" s="3"/>
       <c r="CK177" s="3"/>
     </row>
-    <row r="178" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -16571,7 +16585,7 @@
       <c r="CJ178" s="3"/>
       <c r="CK178" s="3"/>
     </row>
-    <row r="179" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -16660,7 +16674,7 @@
       <c r="CJ179" s="3"/>
       <c r="CK179" s="3"/>
     </row>
-    <row r="180" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -16749,7 +16763,7 @@
       <c r="CJ180" s="3"/>
       <c r="CK180" s="3"/>
     </row>
-    <row r="181" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -16838,7 +16852,7 @@
       <c r="CJ181" s="3"/>
       <c r="CK181" s="3"/>
     </row>
-    <row r="182" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -16927,7 +16941,7 @@
       <c r="CJ182" s="3"/>
       <c r="CK182" s="3"/>
     </row>
-    <row r="183" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -17016,7 +17030,7 @@
       <c r="CJ183" s="3"/>
       <c r="CK183" s="3"/>
     </row>
-    <row r="184" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -17105,7 +17119,7 @@
       <c r="CJ184" s="3"/>
       <c r="CK184" s="3"/>
     </row>
-    <row r="185" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -17194,7 +17208,7 @@
       <c r="CJ185" s="3"/>
       <c r="CK185" s="3"/>
     </row>
-    <row r="186" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -17283,7 +17297,7 @@
       <c r="CJ186" s="3"/>
       <c r="CK186" s="3"/>
     </row>
-    <row r="187" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -17372,7 +17386,7 @@
       <c r="CJ187" s="3"/>
       <c r="CK187" s="3"/>
     </row>
-    <row r="188" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -17461,7 +17475,7 @@
       <c r="CJ188" s="3"/>
       <c r="CK188" s="3"/>
     </row>
-    <row r="189" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -17550,7 +17564,7 @@
       <c r="CJ189" s="3"/>
       <c r="CK189" s="3"/>
     </row>
-    <row r="190" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -17639,7 +17653,7 @@
       <c r="CJ190" s="3"/>
       <c r="CK190" s="3"/>
     </row>
-    <row r="191" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -17728,7 +17742,7 @@
       <c r="CJ191" s="3"/>
       <c r="CK191" s="3"/>
     </row>
-    <row r="192" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -17817,7 +17831,7 @@
       <c r="CJ192" s="3"/>
       <c r="CK192" s="3"/>
     </row>
-    <row r="193" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -17906,7 +17920,7 @@
       <c r="CJ193" s="3"/>
       <c r="CK193" s="3"/>
     </row>
-    <row r="194" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -17995,7 +18009,7 @@
       <c r="CJ194" s="3"/>
       <c r="CK194" s="3"/>
     </row>
-    <row r="195" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -18084,7 +18098,7 @@
       <c r="CJ195" s="3"/>
       <c r="CK195" s="3"/>
     </row>
-    <row r="196" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -18173,7 +18187,7 @@
       <c r="CJ196" s="3"/>
       <c r="CK196" s="3"/>
     </row>
-    <row r="197" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -18262,7 +18276,7 @@
       <c r="CJ197" s="3"/>
       <c r="CK197" s="3"/>
     </row>
-    <row r="198" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -18351,7 +18365,7 @@
       <c r="CJ198" s="3"/>
       <c r="CK198" s="3"/>
     </row>
-    <row r="199" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -18440,7 +18454,7 @@
       <c r="CJ199" s="3"/>
       <c r="CK199" s="3"/>
     </row>
-    <row r="200" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -18529,7 +18543,7 @@
       <c r="CJ200" s="3"/>
       <c r="CK200" s="3"/>
     </row>
-    <row r="201" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -18618,7 +18632,7 @@
       <c r="CJ201" s="3"/>
       <c r="CK201" s="3"/>
     </row>
-    <row r="202" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -18707,7 +18721,7 @@
       <c r="CJ202" s="3"/>
       <c r="CK202" s="3"/>
     </row>
-    <row r="203" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -18796,7 +18810,7 @@
       <c r="CJ203" s="3"/>
       <c r="CK203" s="3"/>
     </row>
-    <row r="204" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -18885,7 +18899,7 @@
       <c r="CJ204" s="3"/>
       <c r="CK204" s="3"/>
     </row>
-    <row r="205" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -18974,7 +18988,7 @@
       <c r="CJ205" s="3"/>
       <c r="CK205" s="3"/>
     </row>
-    <row r="206" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -19063,7 +19077,7 @@
       <c r="CJ206" s="3"/>
       <c r="CK206" s="3"/>
     </row>
-    <row r="207" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -19152,7 +19166,7 @@
       <c r="CJ207" s="3"/>
       <c r="CK207" s="3"/>
     </row>
-    <row r="208" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -19241,7 +19255,7 @@
       <c r="CJ208" s="3"/>
       <c r="CK208" s="3"/>
     </row>
-    <row r="209" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -19330,7 +19344,7 @@
       <c r="CJ209" s="3"/>
       <c r="CK209" s="3"/>
     </row>
-    <row r="210" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -19419,7 +19433,7 @@
       <c r="CJ210" s="3"/>
       <c r="CK210" s="3"/>
     </row>
-    <row r="211" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -19508,7 +19522,7 @@
       <c r="CJ211" s="3"/>
       <c r="CK211" s="3"/>
     </row>
-    <row r="212" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -19597,7 +19611,7 @@
       <c r="CJ212" s="3"/>
       <c r="CK212" s="3"/>
     </row>
-    <row r="213" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -19686,7 +19700,7 @@
       <c r="CJ213" s="3"/>
       <c r="CK213" s="3"/>
     </row>
-    <row r="214" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -19775,7 +19789,7 @@
       <c r="CJ214" s="3"/>
       <c r="CK214" s="3"/>
     </row>
-    <row r="215" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -19864,7 +19878,7 @@
       <c r="CJ215" s="3"/>
       <c r="CK215" s="3"/>
     </row>
-    <row r="216" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -19953,7 +19967,7 @@
       <c r="CJ216" s="3"/>
       <c r="CK216" s="3"/>
     </row>
-    <row r="217" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -20042,7 +20056,7 @@
       <c r="CJ217" s="3"/>
       <c r="CK217" s="3"/>
     </row>
-    <row r="218" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -20131,7 +20145,7 @@
       <c r="CJ218" s="3"/>
       <c r="CK218" s="3"/>
     </row>
-    <row r="219" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -20220,7 +20234,7 @@
       <c r="CJ219" s="3"/>
       <c r="CK219" s="3"/>
     </row>
-    <row r="220" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -20309,7 +20323,7 @@
       <c r="CJ220" s="3"/>
       <c r="CK220" s="3"/>
     </row>
-    <row r="221" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -20398,7 +20412,7 @@
       <c r="CJ221" s="3"/>
       <c r="CK221" s="3"/>
     </row>
-    <row r="222" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -20487,7 +20501,7 @@
       <c r="CJ222" s="3"/>
       <c r="CK222" s="3"/>
     </row>
-    <row r="223" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -20576,7 +20590,7 @@
       <c r="CJ223" s="3"/>
       <c r="CK223" s="3"/>
     </row>
-    <row r="224" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -20665,7 +20679,7 @@
       <c r="CJ224" s="3"/>
       <c r="CK224" s="3"/>
     </row>
-    <row r="225" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -20754,7 +20768,7 @@
       <c r="CJ225" s="3"/>
       <c r="CK225" s="3"/>
     </row>
-    <row r="226" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -20843,7 +20857,7 @@
       <c r="CJ226" s="3"/>
       <c r="CK226" s="3"/>
     </row>
-    <row r="227" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -20932,7 +20946,7 @@
       <c r="CJ227" s="3"/>
       <c r="CK227" s="3"/>
     </row>
-    <row r="228" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -21021,7 +21035,7 @@
       <c r="CJ228" s="3"/>
       <c r="CK228" s="3"/>
     </row>
-    <row r="229" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -21110,7 +21124,7 @@
       <c r="CJ229" s="3"/>
       <c r="CK229" s="3"/>
     </row>
-    <row r="230" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -21199,7 +21213,7 @@
       <c r="CJ230" s="3"/>
       <c r="CK230" s="3"/>
     </row>
-    <row r="231" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -21288,7 +21302,7 @@
       <c r="CJ231" s="3"/>
       <c r="CK231" s="3"/>
     </row>
-    <row r="232" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -21376,7 +21390,7 @@
       <c r="CJ232" s="3"/>
       <c r="CK232" s="3"/>
     </row>
-    <row r="233" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -21464,7 +21478,7 @@
       <c r="CJ233" s="3"/>
       <c r="CK233" s="3"/>
     </row>
-    <row r="234" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -21552,7 +21566,7 @@
       <c r="CJ234" s="3"/>
       <c r="CK234" s="3"/>
     </row>
-    <row r="235" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -21640,7 +21654,7 @@
       <c r="CJ235" s="3"/>
       <c r="CK235" s="3"/>
     </row>
-    <row r="236" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -21728,7 +21742,7 @@
       <c r="CJ236" s="3"/>
       <c r="CK236" s="3"/>
     </row>
-    <row r="237" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -21816,7 +21830,7 @@
       <c r="CJ237" s="3"/>
       <c r="CK237" s="3"/>
     </row>
-    <row r="238" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -21904,7 +21918,7 @@
       <c r="CJ238" s="3"/>
       <c r="CK238" s="3"/>
     </row>
-    <row r="239" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -21992,7 +22006,7 @@
       <c r="CJ239" s="3"/>
       <c r="CK239" s="3"/>
     </row>
-    <row r="240" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -22080,7 +22094,7 @@
       <c r="CJ240" s="3"/>
       <c r="CK240" s="3"/>
     </row>
-    <row r="241" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -22168,7 +22182,7 @@
       <c r="CJ241" s="3"/>
       <c r="CK241" s="3"/>
     </row>
-    <row r="242" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -22256,13 +22270,13 @@
       <c r="CJ242" s="3"/>
       <c r="CK242" s="3"/>
     </row>
-    <row r="243" spans="3:89" x14ac:dyDescent="0.25">
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="I243" s="2"/>
+    <row r="243" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+      <c r="I243" s="8"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -22344,7 +22358,7 @@
       <c r="CJ243" s="3"/>
       <c r="CK243" s="3"/>
     </row>
-    <row r="244" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -22432,7 +22446,7 @@
       <c r="CJ244" s="3"/>
       <c r="CK244" s="3"/>
     </row>
-    <row r="245" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -22521,7 +22535,7 @@
       <c r="CJ245" s="3"/>
       <c r="CK245" s="3"/>
     </row>
-    <row r="246" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -22610,7 +22624,7 @@
       <c r="CJ246" s="3"/>
       <c r="CK246" s="3"/>
     </row>
-    <row r="247" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -22699,7 +22713,7 @@
       <c r="CJ247" s="3"/>
       <c r="CK247" s="3"/>
     </row>
-    <row r="248" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -22788,7 +22802,7 @@
       <c r="CJ248" s="3"/>
       <c r="CK248" s="3"/>
     </row>
-    <row r="249" spans="3:89" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:89" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>

--- a/BOOT.xlsx
+++ b/BOOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8F570-D10F-412A-A6AE-A4BA42969E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F44B93B-A32E-40C9-810B-D603236D0BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{0314A48E-4A7F-452F-A8F7-3D2CABA03279}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{0314A48E-4A7F-452F-A8F7-3D2CABA03279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Boot Barn Holdings</t>
   </si>
@@ -129,13 +129,52 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>FQ325</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>western and work-related footwear, appereal, accessoires etc.</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Hats &amp; other</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -145,13 +184,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,6 +233,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,26 +258,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43253E3F-E87A-4EBF-98F0-BF3EB9DF3A2D}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>137.26</v>
+        <v>165.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -590,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>30.559000000000001</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
+        <v>30.555623000000001</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -605,21 +667,21 @@
       </c>
       <c r="I4" s="3">
         <f>+I3*I2</f>
-        <v>4194.5283399999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+        <v>5044.7333572999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>152.91399999999999</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
+        <v>95.319000000000003</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -629,8 +691,8 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>30</v>
+      <c r="J6" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -639,22 +701,23 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>4041.6143400000001</v>
+        <v>4949.4143572999992</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{3432717E-8C6F-4180-8DB6-B4A3D1397479}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{80D0C74E-92CB-4F78-A420-0AE2B0DA7DFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -662,13 +725,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D75057-02BD-40A6-859F-30122F2CCAF2}">
-  <dimension ref="A1:CK249"/>
+  <dimension ref="A1:CK255"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -708,217 +771,102 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
-      <c r="CK3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4">
+        <v>361</v>
+      </c>
+      <c r="D3" s="4">
+        <v>371</v>
+      </c>
+      <c r="E3" s="4">
+        <v>382</v>
+      </c>
+      <c r="F3" s="4">
+        <v>400</v>
+      </c>
+      <c r="G3" s="4">
+        <v>411</v>
+      </c>
+      <c r="H3" s="4">
+        <v>425</v>
+      </c>
+      <c r="I3" s="4">
+        <v>438</v>
+      </c>
+      <c r="J3" s="10">
+        <v>459</v>
+      </c>
+      <c r="K3" s="10">
+        <v>473</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7">
-        <v>520.399</v>
-      </c>
-      <c r="D4" s="7">
-        <v>374.45600000000002</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>425.79899999999998</v>
-      </c>
-      <c r="I4" s="7">
-        <v>608.16999999999996</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>321.29199999999997</v>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11">
+        <f>49%*C10</f>
+        <v>188.01054999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>240.54</v>
-      </c>
-      <c r="E5" s="3"/>
+        <f>49%*D10</f>
+        <v>183.48344</v>
+      </c>
+      <c r="E5" s="3">
+        <f>47%*E10</f>
+        <v>244.58752999999999</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="11">
+        <f>49%*G10</f>
+        <v>207.45914000000002</v>
+      </c>
       <c r="H5" s="3">
-        <v>272.94099999999997</v>
+        <f>48%*H10</f>
+        <v>204.38351999999998</v>
       </c>
       <c r="I5" s="3">
-        <v>369.30099999999999</v>
+        <f>43%*I10</f>
+        <v>261.51309999999995</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <f>48%*K10</f>
+        <v>241.95215999999999</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -999,42 +947,39 @@
       <c r="CK5" s="3"/>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:G6" si="0">+C4-C5</f>
-        <v>199.10700000000003</v>
+        <f>34%*C10</f>
+        <v>130.4563</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>133.91600000000003</v>
+        <f>34%*D10</f>
+        <v>127.31504000000001</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>37%*E10</f>
+        <v>192.54763</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>34%*G10</f>
+        <v>143.95124000000001</v>
       </c>
       <c r="H6" s="3">
-        <f>+H4-H5</f>
-        <v>152.858</v>
+        <f>35%*H10</f>
+        <v>149.02964999999998</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:J6" si="1">+I4-I5</f>
-        <v>238.86899999999997</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3"/>
+        <f>41%*I10</f>
+        <v>249.34969999999996</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <f>35%*K10</f>
+        <v>176.42345</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1115,26 +1060,39 @@
       <c r="CK6" s="3"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="3">
-        <v>123.96</v>
+        <f>17%*C10</f>
+        <v>65.228149999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>95.337999999999994</v>
-      </c>
-      <c r="E7" s="3"/>
+        <f>17%*D10</f>
+        <v>63.657520000000005</v>
+      </c>
+      <c r="E7" s="3">
+        <f>16%*E10</f>
+        <v>83.263840000000002</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <f>17%*G10</f>
+        <v>71.975620000000006</v>
+      </c>
       <c r="H7" s="3">
-        <v>112.879</v>
+        <f>17%*H10</f>
+        <v>72.385829999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>139.405</v>
+        <f>16%*I10</f>
+        <v>97.307199999999995</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <f>17%*K10</f>
+        <v>85.691390000000013</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1215,42 +1173,39 @@
       <c r="CK7" s="3"/>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+      <c r="B8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:G8" si="2">+C6-C7</f>
-        <v>75.147000000000034</v>
+        <f>90%*C10</f>
+        <v>345.32549999999998</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>38.578000000000031</v>
+        <f>90%*D10</f>
+        <v>337.0104</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>89%*E10</f>
+        <v>463.15511000000004</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>91%*G10</f>
+        <v>385.28126000000003</v>
       </c>
       <c r="H8" s="3">
-        <f>+H6-H7</f>
-        <v>39.978999999999999</v>
+        <f>90%*H10</f>
+        <v>383.21909999999997</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:J8" si="3">+I6-I7</f>
-        <v>99.46399999999997</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
+        <f>88%*I10</f>
+        <v>535.18959999999993</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <f>91%*K10</f>
+        <v>458.70097000000004</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1331,26 +1286,39 @@
       <c r="CK8" s="3"/>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>24</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="3">
-        <v>0.52200000000000002</v>
+        <f>10%*C10</f>
+        <v>38.369500000000002</v>
       </c>
       <c r="D9" s="3">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E9" s="3"/>
+        <f>10%*D10</f>
+        <v>37.445600000000006</v>
+      </c>
+      <c r="E9" s="3">
+        <f>11%*E10</f>
+        <v>57.24389</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <f>9%*G10</f>
+        <v>38.10474</v>
+      </c>
       <c r="H9" s="3">
-        <v>0.38400000000000001</v>
+        <f>10%*H10</f>
+        <v>42.579900000000002</v>
       </c>
       <c r="I9" s="3">
-        <v>0.41599999999999998</v>
+        <f>12%*I10</f>
+        <v>72.980399999999989</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <f>9%*K10</f>
+        <v>45.366030000000002</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1431,26 +1399,36 @@
       <c r="CK9" s="3"/>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>383.69499999999999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>374.45600000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <v>520.399</v>
+      </c>
+      <c r="F10" s="7">
+        <v>388.459</v>
+      </c>
+      <c r="G10" s="7">
+        <v>423.38600000000002</v>
+      </c>
+      <c r="H10" s="7">
+        <v>425.79899999999998</v>
+      </c>
+      <c r="I10" s="7">
+        <v>608.16999999999996</v>
+      </c>
+      <c r="J10" s="7">
+        <v>453.74900000000002</v>
+      </c>
+      <c r="K10" s="7">
+        <v>504.06700000000001</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1532,41 +1510,35 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:G11" si="4">+C8-C9+C10</f>
-        <v>74.976000000000028</v>
+        <v>241.732</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>38.065000000000033</v>
+        <v>240.54</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>321.29199999999997</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>249.02099999999999</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>266.637</v>
       </c>
       <c r="H11" s="3">
-        <f>+H8-H9+H10</f>
-        <v>40.543999999999997</v>
+        <v>272.94099999999997</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:J11" si="5">+I8-I9+I10</f>
-        <v>99.157999999999973</v>
+        <v>369.30099999999999</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>285.18700000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>306.846</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1648,25 +1620,44 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>19.352</v>
+        <f t="shared" ref="C12:G12" si="0">+C10-C11</f>
+        <v>141.96299999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>10.385</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <f t="shared" si="0"/>
+        <v>133.91600000000003</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>199.10700000000003</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>139.43800000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>156.74900000000002</v>
+      </c>
       <c r="H12" s="3">
-        <v>11.116</v>
+        <f>+H10-H11</f>
+        <v>152.858</v>
       </c>
       <c r="I12" s="3">
-        <v>24.091999999999999</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+        <f t="shared" ref="I12:K12" si="1">+I10-I11</f>
+        <v>238.86899999999997</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>168.56200000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>197.221</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1748,41 +1739,35 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13" si="6">+C11-C12</f>
-        <v>55.624000000000024</v>
+        <v>95.718000000000004</v>
       </c>
       <c r="D13" s="3">
-        <f>+D11-D12</f>
-        <v>27.680000000000035</v>
+        <v>95.337999999999994</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:J13" si="7">+E11-E12</f>
-        <v>0</v>
+        <v>123.96</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>101.194</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>106.527</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="7"/>
-        <v>29.427999999999997</v>
+        <v>112.879</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="7"/>
-        <v>75.065999999999974</v>
+        <v>139.405</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>118.875</v>
+      </c>
+      <c r="K13" s="3">
+        <v>126.501</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1863,15 +1848,45 @@
       <c r="CK13" s="3"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:G14" si="2">+C12-C13</f>
+        <v>46.24499999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>38.578000000000031</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>75.147000000000034</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>38.244000000000014</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>50.222000000000023</v>
+      </c>
+      <c r="H14" s="3">
+        <f>+H12-H13</f>
+        <v>39.978999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14:K14" si="3">+I12-I13</f>
+        <v>99.46399999999997</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>49.687000000000012</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>70.72</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1953,41 +1968,35 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:G15" si="8">+C13/C16</f>
-        <v>1.8361997821278853</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="8"/>
-        <v>0.91847230978531491</v>
-      </c>
-      <c r="E15" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="8">
-        <f>+H13/H16</f>
-        <v>0.96453621763356268</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" ref="I15:J15" si="9">+I13/I16</f>
-        <v>2.456428548054582</v>
-      </c>
-      <c r="J15" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.34300000000000003</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2069,25 +2078,35 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>30.292999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="D16" s="3">
-        <v>30.137</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>-0.05</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="H16" s="3">
-        <v>30.51</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="I16" s="3">
-        <v>30.559000000000001</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.91100000000000003</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2167,16 +2186,46 @@
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
     </row>
-    <row r="17" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+    <row r="17" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:G17" si="4">+C14-C15+C16</f>
+        <v>45.445999999999984</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>38.065000000000033</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>74.976000000000028</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>38.885000000000019</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="4"/>
+        <v>50.457000000000022</v>
+      </c>
+      <c r="H17" s="3">
+        <f>+H14-H15+H16</f>
+        <v>40.543999999999997</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ref="I17:K17" si="5">+I14-I15+I16</f>
+        <v>99.157999999999973</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="5"/>
+        <v>49.948000000000015</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>71.287999999999997</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2256,16 +2305,37 @@
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
     </row>
-    <row r="18" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+    <row r="18" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11.193</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10.385</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19.352</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.4459999999999997</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11.558</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11.116</v>
+      </c>
+      <c r="I18" s="3">
+        <v>24.091999999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12.409000000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>17.88</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2345,16 +2415,46 @@
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
     </row>
-    <row r="19" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+    <row r="19" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19" si="6">+C17-C18</f>
+        <v>34.252999999999986</v>
+      </c>
+      <c r="D19" s="3">
+        <f>+D17-D18</f>
+        <v>27.680000000000035</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:K19" si="7">+E17-E18</f>
+        <v>55.624000000000024</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="7"/>
+        <v>29.439000000000021</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="7"/>
+        <v>38.899000000000022</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="7"/>
+        <v>29.427999999999997</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="7"/>
+        <v>75.065999999999974</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="7"/>
+        <v>37.539000000000016</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="7"/>
+        <v>53.408000000000001</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2434,7 +2534,7 @@
       <c r="CJ19" s="3"/>
       <c r="CK19" s="3"/>
     </row>
-    <row r="20" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2523,16 +2623,46 @@
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
     </row>
-    <row r="21" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+    <row r="21" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:G21" si="8">+C19/C22</f>
+        <v>1.1447429984626691</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="8"/>
+        <v>0.91847230978531491</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="8"/>
+        <v>1.8361997821278853</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>0.97103935085925464</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2781848651135288</v>
+      </c>
+      <c r="H21" s="8">
+        <f>+H19/H22</f>
+        <v>0.96453621763356268</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" ref="I21:K21" si="9">+I19/I22</f>
+        <v>2.456428548054582</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="9"/>
+        <v>1.2270454025430659</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="9"/>
+        <v>1.7455876585174532</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2612,16 +2742,37 @@
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
     </row>
-    <row r="22" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+    <row r="22" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>29.922000000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>30.137</v>
+      </c>
+      <c r="E22" s="3">
+        <v>30.292999999999999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30.317</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30.433</v>
+      </c>
+      <c r="H22" s="3">
+        <v>30.51</v>
+      </c>
+      <c r="I22" s="3">
+        <v>30.559000000000001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>30.593</v>
+      </c>
+      <c r="K22" s="3">
+        <v>30.596</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2701,7 +2852,7 @@
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
     </row>
-    <row r="23" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2790,16 +2941,34 @@
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
     </row>
-    <row r="24" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="G24" s="13">
+        <f t="shared" ref="G24:J24" si="10">+G10/C10-1</f>
+        <v>0.10344414183140271</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="10"/>
+        <v>0.13711357275621161</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="10"/>
+        <v>0.16866096975589873</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="10"/>
+        <v>0.16807436563446854</v>
+      </c>
+      <c r="K24" s="13">
+        <f>+K10/G10-1</f>
+        <v>0.1905613317398307</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2879,16 +3048,46 @@
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
     </row>
-    <row r="25" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+    <row r="25" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ref="C25:K25" si="11">+C12/C10</f>
+        <v>0.36998918411759341</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.35762813254427761</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.38260450154592923</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.35895165255535338</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.37022716858847488</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.35899097931183493</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.39276682506535998</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="11"/>
+        <v>0.37148732008224811</v>
+      </c>
+      <c r="K25" s="12">
+        <f>+K12/K10</f>
+        <v>0.39125949526551035</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2968,16 +3167,46 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
     </row>
-    <row r="26" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+    <row r="26" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" ref="C26:K26" si="12">+C14/C10</f>
+        <v>0.12052541732365549</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="12"/>
+        <v>0.10302412032388326</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="12"/>
+        <v>0.14440266026644946</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="12"/>
+        <v>9.8450544330289713E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="12"/>
+        <v>0.11861988823437719</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="12"/>
+        <v>9.3891718862655862E-2</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="12"/>
+        <v>0.16354637683542428</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="12"/>
+        <v>0.10950327163255458</v>
+      </c>
+      <c r="K26" s="12">
+        <f>+K14/K10</f>
+        <v>0.14029880948365991</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3057,16 +3286,46 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
     </row>
-    <row r="27" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+    <row r="27" spans="2:89" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" ref="C27:K27" si="13">+C18/C17</f>
+        <v>0.24629230295295523</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.27282280309996038</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.25810926163038828</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.24292143500064278</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.22906633370989149</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.27417127071823205</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.24296577179854378</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="13"/>
+        <v>0.24843837591094733</v>
+      </c>
+      <c r="K27" s="12">
+        <f>+K18/K17</f>
+        <v>0.25081360116709683</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3146,7 +3405,7 @@
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
     </row>
-    <row r="28" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3235,7 +3494,7 @@
       <c r="CJ28" s="3"/>
       <c r="CK28" s="3"/>
     </row>
-    <row r="29" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3324,7 +3583,7 @@
       <c r="CJ29" s="3"/>
       <c r="CK29" s="3"/>
     </row>
-    <row r="30" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3413,7 +3672,7 @@
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
     </row>
-    <row r="31" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3502,7 +3761,7 @@
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
     </row>
-    <row r="32" spans="3:89" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -21308,6 +21567,7 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
@@ -21396,6 +21656,7 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
@@ -21484,6 +21745,7 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
@@ -21572,6 +21834,7 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
@@ -21660,6 +21923,7 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
@@ -21748,6 +22012,7 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
@@ -22271,12 +22536,12 @@
       <c r="CK242" s="3"/>
     </row>
     <row r="243" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="I243" s="8"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -22452,7 +22717,6 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
@@ -22541,7 +22805,6 @@
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
@@ -22630,7 +22893,6 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
@@ -22719,7 +22981,6 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
@@ -22803,13 +23064,12 @@
       <c r="CK248" s="3"/>
     </row>
     <row r="249" spans="3:89" x14ac:dyDescent="0.2">
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="8"/>
+      <c r="I249" s="8"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -22891,6 +23151,539 @@
       <c r="CJ249" s="3"/>
       <c r="CK249" s="3"/>
     </row>
+    <row r="250" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+      <c r="Y250" s="3"/>
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+      <c r="AF250" s="3"/>
+      <c r="AG250" s="3"/>
+      <c r="AH250" s="3"/>
+      <c r="AI250" s="3"/>
+      <c r="AJ250" s="3"/>
+      <c r="AK250" s="3"/>
+      <c r="AL250" s="3"/>
+      <c r="AM250" s="3"/>
+      <c r="AN250" s="3"/>
+      <c r="AO250" s="3"/>
+      <c r="AP250" s="3"/>
+      <c r="AQ250" s="3"/>
+      <c r="AR250" s="3"/>
+      <c r="AS250" s="3"/>
+      <c r="AT250" s="3"/>
+      <c r="AU250" s="3"/>
+      <c r="AV250" s="3"/>
+      <c r="AW250" s="3"/>
+      <c r="AX250" s="3"/>
+      <c r="AY250" s="3"/>
+      <c r="AZ250" s="3"/>
+      <c r="BA250" s="3"/>
+      <c r="BB250" s="3"/>
+      <c r="BC250" s="3"/>
+      <c r="BD250" s="3"/>
+      <c r="BE250" s="3"/>
+      <c r="BF250" s="3"/>
+      <c r="BG250" s="3"/>
+      <c r="BH250" s="3"/>
+      <c r="BI250" s="3"/>
+      <c r="BJ250" s="3"/>
+      <c r="BK250" s="3"/>
+      <c r="BL250" s="3"/>
+      <c r="BM250" s="3"/>
+      <c r="BN250" s="3"/>
+      <c r="BO250" s="3"/>
+      <c r="BP250" s="3"/>
+      <c r="BQ250" s="3"/>
+      <c r="BR250" s="3"/>
+      <c r="BS250" s="3"/>
+      <c r="BT250" s="3"/>
+      <c r="BU250" s="3"/>
+      <c r="BV250" s="3"/>
+      <c r="BW250" s="3"/>
+      <c r="BX250" s="3"/>
+      <c r="BY250" s="3"/>
+      <c r="BZ250" s="3"/>
+      <c r="CA250" s="3"/>
+      <c r="CB250" s="3"/>
+      <c r="CC250" s="3"/>
+      <c r="CD250" s="3"/>
+      <c r="CE250" s="3"/>
+      <c r="CF250" s="3"/>
+      <c r="CG250" s="3"/>
+      <c r="CH250" s="3"/>
+      <c r="CI250" s="3"/>
+      <c r="CJ250" s="3"/>
+      <c r="CK250" s="3"/>
+    </row>
+    <row r="251" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="3"/>
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+      <c r="AF251" s="3"/>
+      <c r="AG251" s="3"/>
+      <c r="AH251" s="3"/>
+      <c r="AI251" s="3"/>
+      <c r="AJ251" s="3"/>
+      <c r="AK251" s="3"/>
+      <c r="AL251" s="3"/>
+      <c r="AM251" s="3"/>
+      <c r="AN251" s="3"/>
+      <c r="AO251" s="3"/>
+      <c r="AP251" s="3"/>
+      <c r="AQ251" s="3"/>
+      <c r="AR251" s="3"/>
+      <c r="AS251" s="3"/>
+      <c r="AT251" s="3"/>
+      <c r="AU251" s="3"/>
+      <c r="AV251" s="3"/>
+      <c r="AW251" s="3"/>
+      <c r="AX251" s="3"/>
+      <c r="AY251" s="3"/>
+      <c r="AZ251" s="3"/>
+      <c r="BA251" s="3"/>
+      <c r="BB251" s="3"/>
+      <c r="BC251" s="3"/>
+      <c r="BD251" s="3"/>
+      <c r="BE251" s="3"/>
+      <c r="BF251" s="3"/>
+      <c r="BG251" s="3"/>
+      <c r="BH251" s="3"/>
+      <c r="BI251" s="3"/>
+      <c r="BJ251" s="3"/>
+      <c r="BK251" s="3"/>
+      <c r="BL251" s="3"/>
+      <c r="BM251" s="3"/>
+      <c r="BN251" s="3"/>
+      <c r="BO251" s="3"/>
+      <c r="BP251" s="3"/>
+      <c r="BQ251" s="3"/>
+      <c r="BR251" s="3"/>
+      <c r="BS251" s="3"/>
+      <c r="BT251" s="3"/>
+      <c r="BU251" s="3"/>
+      <c r="BV251" s="3"/>
+      <c r="BW251" s="3"/>
+      <c r="BX251" s="3"/>
+      <c r="BY251" s="3"/>
+      <c r="BZ251" s="3"/>
+      <c r="CA251" s="3"/>
+      <c r="CB251" s="3"/>
+      <c r="CC251" s="3"/>
+      <c r="CD251" s="3"/>
+      <c r="CE251" s="3"/>
+      <c r="CF251" s="3"/>
+      <c r="CG251" s="3"/>
+      <c r="CH251" s="3"/>
+      <c r="CI251" s="3"/>
+      <c r="CJ251" s="3"/>
+      <c r="CK251" s="3"/>
+    </row>
+    <row r="252" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3"/>
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="3"/>
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+      <c r="AD252" s="3"/>
+      <c r="AE252" s="3"/>
+      <c r="AF252" s="3"/>
+      <c r="AG252" s="3"/>
+      <c r="AH252" s="3"/>
+      <c r="AI252" s="3"/>
+      <c r="AJ252" s="3"/>
+      <c r="AK252" s="3"/>
+      <c r="AL252" s="3"/>
+      <c r="AM252" s="3"/>
+      <c r="AN252" s="3"/>
+      <c r="AO252" s="3"/>
+      <c r="AP252" s="3"/>
+      <c r="AQ252" s="3"/>
+      <c r="AR252" s="3"/>
+      <c r="AS252" s="3"/>
+      <c r="AT252" s="3"/>
+      <c r="AU252" s="3"/>
+      <c r="AV252" s="3"/>
+      <c r="AW252" s="3"/>
+      <c r="AX252" s="3"/>
+      <c r="AY252" s="3"/>
+      <c r="AZ252" s="3"/>
+      <c r="BA252" s="3"/>
+      <c r="BB252" s="3"/>
+      <c r="BC252" s="3"/>
+      <c r="BD252" s="3"/>
+      <c r="BE252" s="3"/>
+      <c r="BF252" s="3"/>
+      <c r="BG252" s="3"/>
+      <c r="BH252" s="3"/>
+      <c r="BI252" s="3"/>
+      <c r="BJ252" s="3"/>
+      <c r="BK252" s="3"/>
+      <c r="BL252" s="3"/>
+      <c r="BM252" s="3"/>
+      <c r="BN252" s="3"/>
+      <c r="BO252" s="3"/>
+      <c r="BP252" s="3"/>
+      <c r="BQ252" s="3"/>
+      <c r="BR252" s="3"/>
+      <c r="BS252" s="3"/>
+      <c r="BT252" s="3"/>
+      <c r="BU252" s="3"/>
+      <c r="BV252" s="3"/>
+      <c r="BW252" s="3"/>
+      <c r="BX252" s="3"/>
+      <c r="BY252" s="3"/>
+      <c r="BZ252" s="3"/>
+      <c r="CA252" s="3"/>
+      <c r="CB252" s="3"/>
+      <c r="CC252" s="3"/>
+      <c r="CD252" s="3"/>
+      <c r="CE252" s="3"/>
+      <c r="CF252" s="3"/>
+      <c r="CG252" s="3"/>
+      <c r="CH252" s="3"/>
+      <c r="CI252" s="3"/>
+      <c r="CJ252" s="3"/>
+      <c r="CK252" s="3"/>
+    </row>
+    <row r="253" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="3"/>
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+      <c r="AF253" s="3"/>
+      <c r="AG253" s="3"/>
+      <c r="AH253" s="3"/>
+      <c r="AI253" s="3"/>
+      <c r="AJ253" s="3"/>
+      <c r="AK253" s="3"/>
+      <c r="AL253" s="3"/>
+      <c r="AM253" s="3"/>
+      <c r="AN253" s="3"/>
+      <c r="AO253" s="3"/>
+      <c r="AP253" s="3"/>
+      <c r="AQ253" s="3"/>
+      <c r="AR253" s="3"/>
+      <c r="AS253" s="3"/>
+      <c r="AT253" s="3"/>
+      <c r="AU253" s="3"/>
+      <c r="AV253" s="3"/>
+      <c r="AW253" s="3"/>
+      <c r="AX253" s="3"/>
+      <c r="AY253" s="3"/>
+      <c r="AZ253" s="3"/>
+      <c r="BA253" s="3"/>
+      <c r="BB253" s="3"/>
+      <c r="BC253" s="3"/>
+      <c r="BD253" s="3"/>
+      <c r="BE253" s="3"/>
+      <c r="BF253" s="3"/>
+      <c r="BG253" s="3"/>
+      <c r="BH253" s="3"/>
+      <c r="BI253" s="3"/>
+      <c r="BJ253" s="3"/>
+      <c r="BK253" s="3"/>
+      <c r="BL253" s="3"/>
+      <c r="BM253" s="3"/>
+      <c r="BN253" s="3"/>
+      <c r="BO253" s="3"/>
+      <c r="BP253" s="3"/>
+      <c r="BQ253" s="3"/>
+      <c r="BR253" s="3"/>
+      <c r="BS253" s="3"/>
+      <c r="BT253" s="3"/>
+      <c r="BU253" s="3"/>
+      <c r="BV253" s="3"/>
+      <c r="BW253" s="3"/>
+      <c r="BX253" s="3"/>
+      <c r="BY253" s="3"/>
+      <c r="BZ253" s="3"/>
+      <c r="CA253" s="3"/>
+      <c r="CB253" s="3"/>
+      <c r="CC253" s="3"/>
+      <c r="CD253" s="3"/>
+      <c r="CE253" s="3"/>
+      <c r="CF253" s="3"/>
+      <c r="CG253" s="3"/>
+      <c r="CH253" s="3"/>
+      <c r="CI253" s="3"/>
+      <c r="CJ253" s="3"/>
+      <c r="CK253" s="3"/>
+    </row>
+    <row r="254" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
+      <c r="Z254" s="3"/>
+      <c r="AA254" s="3"/>
+      <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
+      <c r="AD254" s="3"/>
+      <c r="AE254" s="3"/>
+      <c r="AF254" s="3"/>
+      <c r="AG254" s="3"/>
+      <c r="AH254" s="3"/>
+      <c r="AI254" s="3"/>
+      <c r="AJ254" s="3"/>
+      <c r="AK254" s="3"/>
+      <c r="AL254" s="3"/>
+      <c r="AM254" s="3"/>
+      <c r="AN254" s="3"/>
+      <c r="AO254" s="3"/>
+      <c r="AP254" s="3"/>
+      <c r="AQ254" s="3"/>
+      <c r="AR254" s="3"/>
+      <c r="AS254" s="3"/>
+      <c r="AT254" s="3"/>
+      <c r="AU254" s="3"/>
+      <c r="AV254" s="3"/>
+      <c r="AW254" s="3"/>
+      <c r="AX254" s="3"/>
+      <c r="AY254" s="3"/>
+      <c r="AZ254" s="3"/>
+      <c r="BA254" s="3"/>
+      <c r="BB254" s="3"/>
+      <c r="BC254" s="3"/>
+      <c r="BD254" s="3"/>
+      <c r="BE254" s="3"/>
+      <c r="BF254" s="3"/>
+      <c r="BG254" s="3"/>
+      <c r="BH254" s="3"/>
+      <c r="BI254" s="3"/>
+      <c r="BJ254" s="3"/>
+      <c r="BK254" s="3"/>
+      <c r="BL254" s="3"/>
+      <c r="BM254" s="3"/>
+      <c r="BN254" s="3"/>
+      <c r="BO254" s="3"/>
+      <c r="BP254" s="3"/>
+      <c r="BQ254" s="3"/>
+      <c r="BR254" s="3"/>
+      <c r="BS254" s="3"/>
+      <c r="BT254" s="3"/>
+      <c r="BU254" s="3"/>
+      <c r="BV254" s="3"/>
+      <c r="BW254" s="3"/>
+      <c r="BX254" s="3"/>
+      <c r="BY254" s="3"/>
+      <c r="BZ254" s="3"/>
+      <c r="CA254" s="3"/>
+      <c r="CB254" s="3"/>
+      <c r="CC254" s="3"/>
+      <c r="CD254" s="3"/>
+      <c r="CE254" s="3"/>
+      <c r="CF254" s="3"/>
+      <c r="CG254" s="3"/>
+      <c r="CH254" s="3"/>
+      <c r="CI254" s="3"/>
+      <c r="CJ254" s="3"/>
+      <c r="CK254" s="3"/>
+    </row>
+    <row r="255" spans="3:89" x14ac:dyDescent="0.2">
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="3"/>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
+      <c r="Y255" s="3"/>
+      <c r="Z255" s="3"/>
+      <c r="AA255" s="3"/>
+      <c r="AB255" s="3"/>
+      <c r="AC255" s="3"/>
+      <c r="AD255" s="3"/>
+      <c r="AE255" s="3"/>
+      <c r="AF255" s="3"/>
+      <c r="AG255" s="3"/>
+      <c r="AH255" s="3"/>
+      <c r="AI255" s="3"/>
+      <c r="AJ255" s="3"/>
+      <c r="AK255" s="3"/>
+      <c r="AL255" s="3"/>
+      <c r="AM255" s="3"/>
+      <c r="AN255" s="3"/>
+      <c r="AO255" s="3"/>
+      <c r="AP255" s="3"/>
+      <c r="AQ255" s="3"/>
+      <c r="AR255" s="3"/>
+      <c r="AS255" s="3"/>
+      <c r="AT255" s="3"/>
+      <c r="AU255" s="3"/>
+      <c r="AV255" s="3"/>
+      <c r="AW255" s="3"/>
+      <c r="AX255" s="3"/>
+      <c r="AY255" s="3"/>
+      <c r="AZ255" s="3"/>
+      <c r="BA255" s="3"/>
+      <c r="BB255" s="3"/>
+      <c r="BC255" s="3"/>
+      <c r="BD255" s="3"/>
+      <c r="BE255" s="3"/>
+      <c r="BF255" s="3"/>
+      <c r="BG255" s="3"/>
+      <c r="BH255" s="3"/>
+      <c r="BI255" s="3"/>
+      <c r="BJ255" s="3"/>
+      <c r="BK255" s="3"/>
+      <c r="BL255" s="3"/>
+      <c r="BM255" s="3"/>
+      <c r="BN255" s="3"/>
+      <c r="BO255" s="3"/>
+      <c r="BP255" s="3"/>
+      <c r="BQ255" s="3"/>
+      <c r="BR255" s="3"/>
+      <c r="BS255" s="3"/>
+      <c r="BT255" s="3"/>
+      <c r="BU255" s="3"/>
+      <c r="BV255" s="3"/>
+      <c r="BW255" s="3"/>
+      <c r="BX255" s="3"/>
+      <c r="BY255" s="3"/>
+      <c r="BZ255" s="3"/>
+      <c r="CA255" s="3"/>
+      <c r="CB255" s="3"/>
+      <c r="CC255" s="3"/>
+      <c r="CD255" s="3"/>
+      <c r="CE255" s="3"/>
+      <c r="CF255" s="3"/>
+      <c r="CG255" s="3"/>
+      <c r="CH255" s="3"/>
+      <c r="CI255" s="3"/>
+      <c r="CJ255" s="3"/>
+      <c r="CK255" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{331B5356-68A4-4440-A62B-F573C0C6698D}"/>
